--- a/sheet9/09-ComponentTestcases.xlsx
+++ b/sheet9/09-ComponentTestcases.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Radev\Desktop\Projects\JavaIWS\sheet9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513E901-E438-5C4F-9A7D-E4C53E799B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="averageForce Component Tests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Number</t>
   </si>
@@ -62,12 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Postcondition </t>
-  </si>
-  <si>
-    <t>nothing changed</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t xml:space="preserve">Movie m </t>
@@ -117,87 +110,80 @@
     <t>Test RatingUtils CalculateOverallRating with rated Movie with more than one linked performer and all linked performers unrated</t>
   </si>
   <si>
-    <t>Test RatingUtils CalculateOverallRating with unrated Movie and with linked rated Performers</t>
-  </si>
-  <si>
-    <t>Test RatingUtils CalculateOverallRating with unrated Movie with one rated linked Performer</t>
-  </si>
-  <si>
-    <t>Test RatingUtils CalculateOverallRating with rated Movie with one rated linked performer</t>
-  </si>
-  <si>
-    <t>Test RatingUtils CalculateOverallRating with rated movie and more than one rated linked performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie m = "Star Wars"
-m.rating = -1
-Performer p1 = "Mark Hamill"
-p1.rating = 5.0
+    <t>Test RatingUtils CalculateOverallRating with rated Movie with no linked performers</t>
+  </si>
+  <si>
+    <t>Movie m != null with m.rating != -1 and m.performers = empty</t>
+  </si>
+  <si>
+    <t>Movie m = "Star Wars"
+  m.rating != 5.0
+m.performers = empty</t>
+  </si>
+  <si>
+    <t>Test RatingUtils CalculateOverallRating with rated Movie with one linked performer who has a rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m != null with m.rating != -1 and m.performers = p1 and p1.rating != -1 </t>
+  </si>
+  <si>
+    <t>overallRating = 1/2*(movie rating + APR)</t>
+  </si>
+  <si>
+    <t>overall Rating = 4.5</t>
+  </si>
+  <si>
+    <t>4          (R2)</t>
+  </si>
+  <si>
+    <t>Test RatingUtils CalculateOverallRating with rated Movie with more than one linked performer and one or more linked performers rated</t>
+  </si>
+  <si>
+    <t>Movie m != null with m.rating != -1 and m.performers = p1, …, pn and pi.rating != -1 for i = 1…n</t>
+  </si>
+  <si>
+    <t>Movie m = "Star Wars"
+  m.rating = 5.0
+  Performer p1 = "Mark Hamill"
+p1.rating = 4.0
+m.performers = p1</t>
+  </si>
+  <si>
+    <t>overall Rating = 4.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test RatingUtils CalculateOverallRating with unrated Movie </t>
+  </si>
+  <si>
+    <t>Movie m = "Star Wars"
+  m.rating = -1</t>
+  </si>
+  <si>
+    <t>overall Rating = not rated</t>
+  </si>
+  <si>
+    <t>overll Rating = not rated</t>
+  </si>
+  <si>
+    <t>Movie m = "Star Wars"
+  m.rating = 5.0
+  Performer p1 = "Mark Hamill"
+p1.rating = 4.0
 Performer p2 = "Harrison Ford"
 p2.rating = 5.0
-m.performers = p1, p2
-  </t>
-  </si>
-  <si>
-    <t>overallRating = movie rating = -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie m = "Star Wars"
-m.rating = -1
-Performer p1 = "Mark Hamill"
-p1.rating = 5.0
-m.performers = p1
-  </t>
-  </si>
-  <si>
-    <t>Movie m != null with m.rating = -1 and m.performers = p1 and p1.rating &gt; -1</t>
-  </si>
-  <si>
-    <t>Movie m != null with m.rating = -1 and m.performers = p1, ..., pn and pi.rating = ri &gt; -1 for i = 1...n</t>
-  </si>
-  <si>
-    <t>Movie m != null with m.rating &gt; -1 and m.performers = p1 and p1.rating &gt; -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie m = "Star Wars"
-m.rating = 5.0
-Performer p1 = "Mark Hamill"
-p1.rating = 4.0
-m.performers = p1
-  </t>
-  </si>
-  <si>
-    <t>overallRating = 0.5 * (movie rating + performer rating)</t>
-  </si>
-  <si>
-    <t>Movie m != null with m.rating &gt; -1 and m.performers = p1, ..., pn and pi.rating = ri &gt; -1 for i = 1...n</t>
-  </si>
-  <si>
-    <t>overallRating = 4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overallRating = 0.5 * (average performer rating + movie rating) 
-and the average Performer rating is calculated as: 
-average Performer rating = sum of linked performer ratings for performers /number of linked performers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie m = "Star Wars"
-m.rating = 5.0
-Performer p1 = "Mark Hamill"
-p1.rating = 4.0
-Performer p2 = "Harrison Ford"
-p2.rating = 2.0
-m.performers = p1, p2
-  </t>
-  </si>
-  <si>
-    <t>overallRating = 4.0</t>
+m.performers = p1, p2</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>No change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -240,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -279,7 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,32 +653,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12:J13"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" style="4" customWidth="1"/>
     <col min="8" max="8" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -729,9 +714,9 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>7</v>
@@ -740,31 +725,31 @@
         <v>5</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="12"/>
       <c r="C3" s="9" t="s">
@@ -774,53 +759,53 @@
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="98" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="12"/>
       <c r="C5" s="9" t="s">
@@ -830,20 +815,20 @@
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
@@ -852,31 +837,31 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="112" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="12"/>
       <c r="C7" s="11" t="s">
@@ -886,20 +871,20 @@
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>7</v>
@@ -908,31 +893,31 @@
         <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11" t="s">
@@ -942,20 +927,20 @@
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>7</v>
+    <row r="10" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>7</v>
@@ -964,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="84" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="125.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="12"/>
       <c r="C11" s="11" t="s">
@@ -998,20 +983,20 @@
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>7</v>
@@ -1020,31 +1005,31 @@
         <v>5</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="J12" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="112" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="12"/>
       <c r="C13" s="11" t="s">
@@ -1054,37 +1039,37 @@
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1094,6 +1079,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="42">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="A12:A13"/>
@@ -1104,38 +1117,10 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
